--- a/server/LISTAS/ma/GANCHO J.xlsx
+++ b/server/LISTAS/ma/GANCHO J.xlsx
@@ -783,7 +783,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45289</v>
+        <v>45306</v>
       </c>
       <c r="E1" s="2" t="n"/>
       <c r="F1" s="2" t="n"/>

--- a/server/LISTAS/ma/GANCHO J.xlsx
+++ b/server/LISTAS/ma/GANCHO J.xlsx
@@ -783,7 +783,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="2" t="n"/>
       <c r="F1" s="2" t="n"/>

--- a/server/LISTAS/ma/GANCHO J.xlsx
+++ b/server/LISTAS/ma/GANCHO J.xlsx
@@ -783,7 +783,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="2" t="n"/>
       <c r="F1" s="2" t="n"/>
@@ -949,7 +949,7 @@
       </c>
       <c r="C29" s="23" t="n"/>
       <c r="D29" s="18" t="n">
-        <v>62.043</v>
+        <v>94.935</v>
       </c>
       <c r="E29" s="5" t="n"/>
       <c r="F29" s="5" t="n"/>
@@ -976,7 +976,7 @@
       </c>
       <c r="C30" s="23" t="n"/>
       <c r="D30" s="19" t="n">
-        <v>66.429</v>
+        <v>101.646</v>
       </c>
       <c r="E30" s="5" t="n"/>
       <c r="F30" s="5" t="n"/>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="C31" s="23" t="n"/>
       <c r="D31" s="19" t="n">
-        <v>69.563</v>
+        <v>106.442</v>
       </c>
       <c r="E31" s="5" t="n"/>
       <c r="F31" s="5" t="n"/>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="C32" s="23" t="n"/>
       <c r="D32" s="19" t="n">
-        <v>73.01000000000001</v>
+        <v>111.716</v>
       </c>
       <c r="E32" s="5" t="n"/>
       <c r="F32" s="5" t="n"/>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="C33" s="23" t="n"/>
       <c r="D33" s="19" t="n">
-        <v>76.459</v>
+        <v>116.993</v>
       </c>
       <c r="E33" s="5" t="n"/>
       <c r="F33" s="5" t="n"/>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C34" s="23" t="n"/>
       <c r="D34" s="19" t="n">
-        <v>80.84099999999999</v>
+        <v>123.699</v>
       </c>
       <c r="E34" s="5" t="n"/>
       <c r="F34" s="5" t="n"/>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="C35" s="23" t="n"/>
       <c r="D35" s="19" t="n">
-        <v>87.738</v>
+        <v>134.252</v>
       </c>
       <c r="E35" s="5" t="n"/>
       <c r="F35" s="5" t="n"/>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="C36" s="23" t="n"/>
       <c r="D36" s="19" t="n">
-        <v>99.01900000000001</v>
+        <v>151.514</v>
       </c>
       <c r="E36" s="5" t="n"/>
       <c r="F36" s="5" t="n"/>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C37" s="23" t="n"/>
       <c r="D37" s="19" t="n">
-        <v>115.94</v>
+        <v>177.405</v>
       </c>
       <c r="E37" s="5" t="n"/>
       <c r="F37" s="5" t="n"/>
@@ -1203,17 +1203,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/GANCHO J.xlsx
+++ b/server/LISTAS/ma/GANCHO J.xlsx
@@ -783,7 +783,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="2" t="n"/>
       <c r="F1" s="2" t="n"/>

--- a/server/LISTAS/ma/GANCHO J.xlsx
+++ b/server/LISTAS/ma/GANCHO J.xlsx
@@ -783,7 +783,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="2" t="n"/>
       <c r="F1" s="2" t="n"/>
@@ -1203,17 +1203,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/GANCHO J.xlsx
+++ b/server/LISTAS/ma/GANCHO J.xlsx
@@ -783,7 +783,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="2" t="n"/>
       <c r="F1" s="2" t="n"/>
@@ -1203,17 +1203,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/GANCHO J.xlsx
+++ b/server/LISTAS/ma/GANCHO J.xlsx
@@ -783,7 +783,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="2" t="n"/>
       <c r="F1" s="2" t="n"/>
@@ -1203,17 +1203,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/GANCHO J.xlsx
+++ b/server/LISTAS/ma/GANCHO J.xlsx
@@ -783,7 +783,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="2" t="n"/>
       <c r="F1" s="2" t="n"/>
@@ -949,7 +949,7 @@
       </c>
       <c r="C29" s="23" t="n"/>
       <c r="D29" s="18" t="n">
-        <v>62.043</v>
+        <v>106.327</v>
       </c>
       <c r="E29" s="5" t="n"/>
       <c r="F29" s="5" t="n"/>
@@ -976,7 +976,7 @@
       </c>
       <c r="C30" s="23" t="n"/>
       <c r="D30" s="19" t="n">
-        <v>66.429</v>
+        <v>113.844</v>
       </c>
       <c r="E30" s="5" t="n"/>
       <c r="F30" s="5" t="n"/>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="C31" s="23" t="n"/>
       <c r="D31" s="19" t="n">
-        <v>69.563</v>
+        <v>119.215</v>
       </c>
       <c r="E31" s="5" t="n"/>
       <c r="F31" s="5" t="n"/>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="C32" s="23" t="n"/>
       <c r="D32" s="19" t="n">
-        <v>73.01000000000001</v>
+        <v>125.122</v>
       </c>
       <c r="E32" s="5" t="n"/>
       <c r="F32" s="5" t="n"/>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="C33" s="23" t="n"/>
       <c r="D33" s="19" t="n">
-        <v>76.459</v>
+        <v>131.032</v>
       </c>
       <c r="E33" s="5" t="n"/>
       <c r="F33" s="5" t="n"/>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C34" s="23" t="n"/>
       <c r="D34" s="19" t="n">
-        <v>80.84099999999999</v>
+        <v>138.543</v>
       </c>
       <c r="E34" s="5" t="n"/>
       <c r="F34" s="5" t="n"/>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="C35" s="23" t="n"/>
       <c r="D35" s="19" t="n">
-        <v>87.738</v>
+        <v>150.362</v>
       </c>
       <c r="E35" s="5" t="n"/>
       <c r="F35" s="5" t="n"/>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="C36" s="23" t="n"/>
       <c r="D36" s="19" t="n">
-        <v>99.01900000000001</v>
+        <v>169.696</v>
       </c>
       <c r="E36" s="5" t="n"/>
       <c r="F36" s="5" t="n"/>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C37" s="23" t="n"/>
       <c r="D37" s="19" t="n">
-        <v>115.94</v>
+        <v>198.694</v>
       </c>
       <c r="E37" s="5" t="n"/>
       <c r="F37" s="5" t="n"/>
@@ -1203,17 +1203,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
